--- a/result_dbscan_analize.xlsx
+++ b/result_dbscan_analize.xlsx
@@ -1,40 +1,211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeonhyeongjun/PycharmProjects/kmeans/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463DECA2-BF4E-DF46-A491-4C6814365FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="new_name" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="new_name" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>-1N</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0N</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1N</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2N</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3N</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4N</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5N</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>6N</t>
+  </si>
+  <si>
+    <t>DRIVER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할당치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계치 기준 초과/유휴물량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합처리보정치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>센터 총 처리 능력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>들어온 주문량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사 할당 평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사 할당 분산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15*35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 할당 기사 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계치 이상 할당 기사수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 초과 물량 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 초과 물량 비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합 처리량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사 평균 처리량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉, 평균적으로 25.4개를 배달 하면서 1543개의 물량을 외부 이관하여 불필요한 비용 발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한달 간 기사 고용 비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한달 간 초과 물량 비용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,93 +217,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,227 +550,743 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="83" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:19" ht="36">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-1N</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2-C2</f>
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>352</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E16" si="0">D3-C3</f>
+        <v>-317</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0N</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <f>15*35</f>
+        <v>525</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>746</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>-711</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1N</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>46</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>70</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2N</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>489</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>-454</v>
+      </c>
+      <c r="F9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3N</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>42</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>4N</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
         <v>19</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
         <v>41</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="F13">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="5">
+        <v>8</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>5N</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
         <v>18</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1543</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="5">
+        <v>10801000</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>6N</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
         <v>37</v>
       </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F16">
+        <v>35</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="6:19">
+      <c r="F17">
+        <f>SUM(F2:F16)</f>
+        <v>382</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="6:19">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="6:19">
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="5">
+        <v>382</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="6:19">
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="5">
+        <v>25.4</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="6:19">
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="6:19">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="6:19">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="6:19">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="6:19">
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="M25" s="5">
+        <v>15</v>
+      </c>
+      <c r="N25" s="5">
+        <f>L25*M25</f>
+        <v>45000000</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="6:19">
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="5">
+        <v>10801100</v>
+      </c>
+      <c r="M26" s="5">
+        <v>3</v>
+      </c>
+      <c r="N26" s="5">
+        <v>30</v>
+      </c>
+      <c r="O26" s="5">
+        <f>L26*M26*N26</f>
+        <v>972099000</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="6:19">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6">
+        <f>N25+O26</f>
+        <v>1017099000</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="6:19">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="6:19">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="6:19">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="6:19">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="6:19">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="12:19">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="12:19">
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="12:19">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="12:19">
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+    </row>
+    <row r="37" spans="12:19">
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+    </row>
+    <row r="38" spans="12:19">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+    </row>
+    <row r="39" spans="12:19">
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+    </row>
+    <row r="40" spans="12:19">
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="12:19">
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+    </row>
+    <row r="42" spans="12:19">
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+    </row>
+    <row r="43" spans="12:19">
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>